--- a/question & anwers_lam.xlsx
+++ b/question & anwers_lam.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Documents\Softros LAN Messenger\IT_Lam - 2024 February 27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\report\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11973B93-CF6D-4AC6-AD62-541EC3283348}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Lam" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -576,7 +575,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -787,6 +786,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -794,12 +799,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,11 +1080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1118,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1138,7 +1137,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1148,8 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1161,7 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1173,7 +1172,7 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="26"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
@@ -1184,7 +1183,7 @@
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1198,7 +1197,7 @@
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
@@ -1212,7 +1211,7 @@
         <f t="shared" ref="A10" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
@@ -1223,7 +1222,7 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
@@ -1239,7 +1238,7 @@
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
@@ -1253,7 +1252,7 @@
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="10" t="s">
         <v>29</v>
       </c>
@@ -1263,10 +1262,10 @@
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="26">
         <v>8</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -1281,7 +1280,7 @@
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
@@ -1294,7 +1293,7 @@
       <c r="A16" s="6">
         <v>9</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
@@ -1307,7 +1306,7 @@
       <c r="A17" s="6">
         <v>10</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
@@ -1320,7 +1319,7 @@
       <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1335,7 @@
       <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1346,10 +1345,10 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="26">
         <v>16</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="10" t="s">
         <v>46</v>
       </c>
@@ -1362,7 +1361,7 @@
       <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="10" t="s">
         <v>48</v>
       </c>
@@ -1375,7 +1374,7 @@
       <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="10" t="s">
         <v>50</v>
       </c>
@@ -1388,7 +1387,7 @@
       <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="10" t="s">
         <v>52</v>
       </c>
@@ -1399,7 +1398,7 @@
     </row>
     <row r="24" spans="1:6" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
@@ -1410,7 +1409,7 @@
     </row>
     <row r="25" spans="1:6" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="26"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="10" t="s">
         <v>56</v>
       </c>
@@ -1423,7 +1422,7 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="10" t="s">
         <v>58</v>
       </c>
@@ -1436,7 +1435,7 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="10" t="s">
         <v>60</v>
       </c>
@@ -1449,7 +1448,7 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="10" t="s">
         <v>62</v>
       </c>
@@ -1461,7 +1460,7 @@
     </row>
     <row r="29" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="26"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="10" t="s">
         <v>64</v>
       </c>
@@ -1475,7 +1474,7 @@
       <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30" s="26"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="10" t="s">
         <v>66</v>
       </c>
@@ -1491,7 +1490,7 @@
       <c r="A31" s="18">
         <v>28</v>
       </c>
-      <c r="B31" s="26"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
@@ -1505,7 +1504,7 @@
       <c r="A32" s="18">
         <v>29</v>
       </c>
-      <c r="B32" s="26"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="10" t="s">
         <v>71</v>
       </c>
@@ -1519,7 +1518,7 @@
       <c r="A33" s="18">
         <v>30</v>
       </c>
-      <c r="B33" s="26"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="10" t="s">
         <v>73</v>
       </c>
@@ -1530,10 +1529,10 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
+      <c r="A34" s="25">
         <v>31</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="19" t="s">
         <v>75</v>
       </c>
@@ -1546,7 +1545,7 @@
     </row>
     <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="19" t="s">
         <v>77</v>
       </c>
@@ -1557,10 +1556,10 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="126.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
+      <c r="A36" s="25">
         <v>35</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="27" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -1573,10 +1572,10 @@
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="A37" s="25">
         <v>36</v>
       </c>
-      <c r="B37" s="26"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="10" t="s">
         <v>82</v>
       </c>
@@ -1587,8 +1586,8 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="10" t="s">
         <v>84</v>
       </c>
@@ -1601,7 +1600,7 @@
       <c r="A39" s="18">
         <v>39</v>
       </c>
-      <c r="B39" s="27"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="10" t="s">
         <v>86</v>
       </c>

--- a/question & anwers_lam.xlsx
+++ b/question & anwers_lam.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lam" sheetId="1" r:id="rId1"/>
+    <sheet name="Minh" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
   <si>
     <t>No</t>
   </si>
@@ -571,12 +572,295 @@
   <si>
     <t xml:space="preserve">tuong lai may lam gi </t>
   </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>+ Flutter is a very powerful programming language. runs on both Android and IOS
+'+ Most barcode scanning applications on handheld devices are written on Android</t>
+  </si>
+  <si>
+    <t>why do you select android?</t>
+  </si>
+  <si>
+    <t>what is the most difficult in this project?</t>
+  </si>
+  <si>
+    <t>+ Programming in new languages and new environments.
+'+ It takes a lot of time to learn them from different sources. on social networks. on the internet, and forums. Try to learn and master them.</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>I can develop mobile applications. I can apply mobile applications to other departments via barcode scanning device</t>
+  </si>
+  <si>
+    <t>1,2,3 in FY2024 ? Your plan?</t>
+  </si>
+  <si>
+    <t>beside the main tasks above, I will continue to receive assignment tasks from the manager, main job or urgent job</t>
+  </si>
+  <si>
+    <t>different suppervisor &amp; office?</t>
+  </si>
+  <si>
+    <t>after promotion, what job?</t>
+  </si>
+  <si>
+    <t>support training and planning . Look for improvement and the best solutions  and development. 
++ learning &amp; sharing experience in my team about technical &amp; support user.</t>
+  </si>
+  <si>
+    <t>your carrer in the future?</t>
+  </si>
+  <si>
+    <t>I want to be specialist.  I am in charge of the technical side.   I can make plan projects and ensure progress is always keep on time</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Strong point:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+'+ analysis deeply, logical thinking. Standardize processes for making software.
+'+ Work team skill, share and learn knowledge from other members to take the best solution.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Weak point:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'+ communication skills is not good. Due to focusing on develop software, I have not enough time to learn the factory processes. After promoted, I will try to spend more time learning it from my manager and other colleague.</t>
+    </r>
+  </si>
+  <si>
+    <t>how improve weak point?</t>
+  </si>
+  <si>
+    <t>enjoin GA course. learn from my boss and colleague</t>
+  </si>
+  <si>
+    <t>Improve technical skills, analytical skills, and teamwork skills</t>
+  </si>
+  <si>
+    <t>Too many requests don't have time to handler them. 
+alaway over time to handle urgent project</t>
+  </si>
+  <si>
+    <t>My communication skill need improve more
+Need to study more process of company to standarlization them</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>If fail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> it mean my performance is not enough for your requirement. 
+I need to review what is my weak points and make schedule to improvement.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>If pass:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I will receive new assignment,  continue study more skills to contribute for company</t>
+    </r>
+  </si>
+  <si>
+    <t>learning from other member, look for internet</t>
+  </si>
+  <si>
+    <t>change mindset</t>
+  </si>
+  <si>
+    <t>I am a person always want to learning to level up myself.
+Working with high speed,carefully and special is keep on time.
+Cooperation and strong support .</t>
+  </si>
+  <si>
+    <t>After finish project, IT skill receive?</t>
+  </si>
+  <si>
+    <t>Normal support time ?</t>
+  </si>
+  <si>
+    <t>There are a lot of software  need support during operation. human error, machine error, or system error. Example:  log file NG, barcode supply NG, machine broke set up again, user mistake..</t>
+  </si>
+  <si>
+    <t>tai sao request nhieu ma hoan thanh lai it the</t>
+  </si>
+  <si>
+    <t>shortage develop members (main power). Develop time is not enough</t>
+  </si>
+  <si>
+    <t>(SCS:2, FA:2,GA:1,PE:1)</t>
+  </si>
+  <si>
+    <t>ship control shipment (total 3 need to upgrad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cac cai tien chat luong he thong foss o day la gi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> redundant operations that take a loss of time. Improvements related to operations, find material, find warehouse location, displaying shipment status -&gt; save time to find . inventory warnings, first in, first out</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tai sao tinh duoc 80 % giay, va 66% thoi gian quan ly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3minute/60*20*totoal inventory . 1minute/60*20*totoal inventory </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tai sao hoan thanh upgrade foss vao thang 3, o tren da hoan thanh roi?</t>
+  </si>
+  <si>
+    <t>it still takes time to check the functionality and stability of the software. modify software to suitable the user's operations</t>
+  </si>
+  <si>
+    <t>khi su dung ngon ngu moi? Diem manh</t>
+  </si>
+  <si>
+    <t>+ scan Faster speed,catch stronger signal wifi , more beautiful interface.
+'+ There is a large cache memory, the programming languages is supported on mobile, easy to develop functions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tang thoi gia develop time nhu the nao? Vi du?</t>
+  </si>
+  <si>
+    <t>There is a lot of development time, popular languages,  the programming languages is supported on mobile, easy to develop functions.
+Previously, modify one function take 30 minutes. Now it only takes 3 minutes</t>
+  </si>
+  <si>
+    <t>giam thoi gian support nhu the nao? Vi du ?</t>
+  </si>
+  <si>
+    <t>Devices do not  install software. Catches signal very well. Running software on mobile is stable without crashing. Not repare and set up again OS</t>
+  </si>
+  <si>
+    <t>1 du an lon nhu the nay -&gt; mot minh ban lam het hay la nhieu nguoi cung lam?</t>
+  </si>
+  <si>
+    <t>main fuction I finish, sub main other member develop. my responsibility take standard of process and guide them</t>
+  </si>
+  <si>
+    <t>iec cat giam cac function? Truoc day khong dung nhung function do ak?</t>
+  </si>
+  <si>
+    <t>combine the same fuction</t>
+  </si>
+  <si>
+    <t>Other request khong du thoi gian nhung tai sao van co thoi gian lam du an quan ly tai san cho phong IT?</t>
+  </si>
+  <si>
+    <t>Although I don't have enough time but I have had this idea for a long time. when I have free time I do it,  even work for at home</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Suppervisor: +have more Greater </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expertise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>better skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, training and planning support. Look for improvement and the best solutions. (chuyên môn cao hơn, kỹ năng cao hơn, hỗ trợ lập kế hoạc, tìm kiếm giải pháp.)
+'+ take standard proccess, best solution to office develop.
+Officer: only develop</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +921,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -720,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,6 +1099,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,4 +1940,473 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="78.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>15</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>19</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>20</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>22</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
+        <v>24</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <v>25</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>26</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>27</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>28</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>29</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>30</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <v>31</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>32</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/question & anwers_lam.xlsx
+++ b/question & anwers_lam.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
   <si>
     <t>No</t>
   </si>
@@ -576,30 +576,16 @@
     <t>TYPE</t>
   </si>
   <si>
-    <t>+ Flutter is a very powerful programming language. runs on both Android and IOS
-'+ Most barcode scanning applications on handheld devices are written on Android</t>
-  </si>
-  <si>
     <t>why do you select android?</t>
   </si>
   <si>
     <t>what is the most difficult in this project?</t>
   </si>
   <si>
-    <t>+ Programming in new languages and new environments.
-'+ It takes a lot of time to learn them from different sources. on social networks. on the internet, and forums. Try to learn and master them.</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>I can develop mobile applications. I can apply mobile applications to other departments via barcode scanning device</t>
-  </si>
-  <si>
     <t>1,2,3 in FY2024 ? Your plan?</t>
-  </si>
-  <si>
-    <t>beside the main tasks above, I will continue to receive assignment tasks from the manager, main job or urgent job</t>
   </si>
   <si>
     <t>different suppervisor &amp; office?</t>
@@ -615,7 +601,128 @@
     <t>your carrer in the future?</t>
   </si>
   <si>
-    <t>I want to be specialist.  I am in charge of the technical side.   I can make plan projects and ensure progress is always keep on time</t>
+    <t>how improve weak point?</t>
+  </si>
+  <si>
+    <t>enjoin GA course. learn from my boss and colleague</t>
+  </si>
+  <si>
+    <t>Too many requests don't have time to handler them. 
+alaway over time to handle urgent project</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>If fail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> it mean my performance is not enough for your requirement. 
+I need to review what is my weak points and make schedule to improvement.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>If pass:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I will receive new assignment,  continue study more skills to contribute for company</t>
+    </r>
+  </si>
+  <si>
+    <t>change mindset</t>
+  </si>
+  <si>
+    <t>After finish project, IT skill receive?</t>
+  </si>
+  <si>
+    <t>Normal support time ?</t>
+  </si>
+  <si>
+    <t>There are a lot of software  need support during operation. human error, machine error, or system error. Example:  log file NG, barcode supply NG, machine broke set up again, user mistake..</t>
+  </si>
+  <si>
+    <t>tai sao request nhieu ma hoan thanh lai it the</t>
+  </si>
+  <si>
+    <t>shortage develop members (main power). Develop time is not enough</t>
+  </si>
+  <si>
+    <t>(SCS:2, FA:2,GA:1,PE:1)</t>
+  </si>
+  <si>
+    <t>ship control shipment (total 3 need to upgrad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cac cai tien chat luong he thong foss o day la gi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> redundant operations that take a loss of time. Improvements related to operations, find material, find warehouse location, displaying shipment status -&gt; save time to find . inventory warnings, first in, first out</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tai sao tinh duoc 80 % giay, va 66% thoi gian quan ly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3minute/60*20*totoal inventory . 1minute/60*20*totoal inventory </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tai sao hoan thanh upgrade foss vao thang 3, o tren da hoan thanh roi?</t>
+  </si>
+  <si>
+    <t>it still takes time to check the functionality and stability of the software. modify software to suitable the user's operations</t>
+  </si>
+  <si>
+    <t>khi su dung ngon ngu moi? Diem manh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tang thoi gia develop time nhu the nao? Vi du?</t>
+  </si>
+  <si>
+    <t>There is a lot of development time, popular languages,  the programming languages is supported on mobile, easy to develop functions.
+Previously, modify one function take 30 minutes. Now it only takes 3 minutes</t>
+  </si>
+  <si>
+    <t>giam thoi gian support nhu the nao? Vi du ?</t>
+  </si>
+  <si>
+    <t>Devices do not  install software. Catches signal very well. Running software on mobile is stable without crashing. Not repare and set up again OS</t>
+  </si>
+  <si>
+    <t>1 du an lon nhu the nay -&gt; mot minh ban lam het hay la nhieu nguoi cung lam?</t>
+  </si>
+  <si>
+    <t>main fuction I finish, sub main other member develop. my responsibility take standard of process and guide them</t>
+  </si>
+  <si>
+    <t>iec cat giam cac function? Truoc day khong dung nhung function do ak?</t>
+  </si>
+  <si>
+    <t>combine the same fuction</t>
+  </si>
+  <si>
+    <t>Other request khong du thoi gian nhung tai sao van co thoi gian lam du an quan ly tai san cho phong IT?</t>
+  </si>
+  <si>
+    <t>Although I don't have enough time but I have had this idea for a long time. when I have free time I do it,  even work for at home</t>
   </si>
   <si>
     <r>
@@ -662,165 +769,83 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-'+ communication skills is not good. Due to focusing on develop software, I have not enough time to learn the factory processes. After promoted, I will try to spend more time learning it from my manager and other colleague.</t>
-    </r>
-  </si>
-  <si>
-    <t>how improve weak point?</t>
-  </si>
-  <si>
-    <t>enjoin GA course. learn from my boss and colleague</t>
-  </si>
-  <si>
-    <t>Improve technical skills, analytical skills, and teamwork skills</t>
-  </si>
-  <si>
-    <t>Too many requests don't have time to handler them. 
-alaway over time to handle urgent project</t>
-  </si>
-  <si>
-    <t>My communication skill need improve more
-Need to study more process of company to standarlization them</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>If fail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> it mean my performance is not enough for your requirement. 
-I need to review what is my weak points and make schedule to improvement.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>If pass:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>I will receive new assignment,  continue study more skills to contribute for company</t>
-    </r>
-  </si>
-  <si>
-    <t>learning from other member, look for internet</t>
-  </si>
-  <si>
-    <t>change mindset</t>
-  </si>
-  <si>
-    <t>I am a person always want to learning to level up myself.
-Working with high speed,carefully and special is keep on time.
-Cooperation and strong support .</t>
-  </si>
-  <si>
-    <t>After finish project, IT skill receive?</t>
-  </si>
-  <si>
-    <t>Normal support time ?</t>
-  </si>
-  <si>
-    <t>There are a lot of software  need support during operation. human error, machine error, or system error. Example:  log file NG, barcode supply NG, machine broke set up again, user mistake..</t>
-  </si>
-  <si>
-    <t>tai sao request nhieu ma hoan thanh lai it the</t>
-  </si>
-  <si>
-    <t>shortage develop members (main power). Develop time is not enough</t>
-  </si>
-  <si>
-    <t>(SCS:2, FA:2,GA:1,PE:1)</t>
-  </si>
-  <si>
-    <t>ship control shipment (total 3 need to upgrad)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cac cai tien chat luong he thong foss o day la gi?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> redundant operations that take a loss of time. Improvements related to operations, find material, find warehouse location, displaying shipment status -&gt; save time to find . inventory warnings, first in, first out</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tai sao tinh duoc 80 % giay, va 66% thoi gian quan ly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3minute/60*20*totoal inventory . 1minute/60*20*totoal inventory </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tai sao hoan thanh upgrade foss vao thang 3, o tren da hoan thanh roi?</t>
-  </si>
-  <si>
-    <t>it still takes time to check the functionality and stability of the software. modify software to suitable the user's operations</t>
-  </si>
-  <si>
-    <t>khi su dung ngon ngu moi? Diem manh</t>
-  </si>
-  <si>
-    <t>+ scan Faster speed,catch stronger signal wifi , more beautiful interface.
-'+ There is a large cache memory, the programming languages is supported on mobile, easy to develop functions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tang thoi gia develop time nhu the nao? Vi du?</t>
-  </si>
-  <si>
-    <t>There is a lot of development time, popular languages,  the programming languages is supported on mobile, easy to develop functions.
-Previously, modify one function take 30 minutes. Now it only takes 3 minutes</t>
-  </si>
-  <si>
-    <t>giam thoi gian support nhu the nao? Vi du ?</t>
-  </si>
-  <si>
-    <t>Devices do not  install software. Catches signal very well. Running software on mobile is stable without crashing. Not repare and set up again OS</t>
-  </si>
-  <si>
-    <t>1 du an lon nhu the nay -&gt; mot minh ban lam het hay la nhieu nguoi cung lam?</t>
-  </si>
-  <si>
-    <t>main fuction I finish, sub main other member develop. my responsibility take standard of process and guide them</t>
-  </si>
-  <si>
-    <t>iec cat giam cac function? Truoc day khong dung nhung function do ak?</t>
-  </si>
-  <si>
-    <t>combine the same fuction</t>
-  </si>
-  <si>
-    <t>Other request khong du thoi gian nhung tai sao van co thoi gian lam du an quan ly tai san cho phong IT?</t>
-  </si>
-  <si>
-    <t>Although I don't have enough time but I have had this idea for a long time. when I have free time I do it,  even work for at home</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Suppervisor: +have more Greater </t>
-    </r>
-    <r>
-      <rPr>
+'+ communication skills is not good. Because I focusing on develop software, I have not enough time to learn the factory other processes. After promoted, I will try to spend more time learning it from my manager and other colleague.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flutter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a very powerful programming language. runs on both Android and IOS
+'+ Most barcode scanning applications on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handheld devices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>written on Android</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Programming in new languages and new environments.
+'+ It </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>expertise</t>
+      <t>takes a lot of time</t>
     </r>
     <r>
       <rPr>
@@ -830,17 +855,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> to learn them from different sources. on social networks. on the internet, and forums. Try to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>better skills</t>
+      <t>learn and master</t>
     </r>
     <r>
       <rPr>
@@ -850,9 +876,389 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, training and planning support. Look for improvement and the best solutions. (chuyên môn cao hơn, kỹ năng cao hơn, hỗ trợ lập kế hoạc, tìm kiếm giải pháp.)
+      <t xml:space="preserve"> them.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">develop mobile </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>applications. I can apply mobile applications to other departments via barcode scanning device</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">beside the main tasks above, I will continue to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>receive assignment tasks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the manager, main job or urgent job</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Suppervisor: +have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Greater expertise, better skills</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, training and planning support</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Look for improvement and the best solutions. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chuyên môn cao hơn, kỹ năng cao hơn, hỗ trợ lập kế hoạc, tìm kiếm giải pháp.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 '+ take standard proccess, best solution to office develop.
 Officer: only develop</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I want to be specialist.  I am in charge of the technical side.   I can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make plan projects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ensure progress is always keep on time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Improve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> technical skills, analyze skills, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teamwork skills</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>My</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> communication skill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> need improve more
+Need to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> study more process of company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to standarlization them</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Firstly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in communication: I stydy more system of factory to standardlize them
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">secondly in job:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">My boss expect me "think about general but not individual" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thirdly for team: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hope me more level up for my team to more quickly adap new mission</t>
+    </r>
+  </si>
+  <si>
+    <t>It a new something so I learning from other member, look for internet</t>
+  </si>
+  <si>
+    <r>
+      <t>I am a person</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> always want to learning to level up myself.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Working with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">high speed,carefully </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">and special is keep on time.
+Cooperation and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">strong support </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ scan Faster speed,catch stronger signal wifi , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>more beautiful interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+'+ There is a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> large cache memor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">y, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>the programming languages is supported on mobile, easy to develop functions.</t>
     </r>
   </si>
 </sst>
@@ -860,7 +1266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,8 +1346,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,6 +1365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1091,6 +1511,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,23 +1538,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1435,7 +1867,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1454,7 +1886,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1898,7 @@
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1478,7 +1910,7 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="28"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +1921,7 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
@@ -1500,7 +1932,7 @@
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1514,7 +1946,7 @@
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
@@ -1528,7 +1960,7 @@
         <f t="shared" ref="A10" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
@@ -1539,7 +1971,7 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
@@ -1555,7 +1987,7 @@
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
@@ -1569,7 +2001,7 @@
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="10" t="s">
         <v>29</v>
       </c>
@@ -1582,7 +2014,7 @@
       <c r="A14" s="26">
         <v>8</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -1597,7 +2029,7 @@
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="28"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
@@ -1610,7 +2042,7 @@
       <c r="A16" s="6">
         <v>9</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
@@ -1623,7 +2055,7 @@
       <c r="A17" s="6">
         <v>10</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
@@ -1636,7 +2068,7 @@
       <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1652,7 +2084,7 @@
       <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="16" t="s">
         <v>44</v>
       </c>
@@ -1665,7 +2097,7 @@
       <c r="A20" s="26">
         <v>16</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="10" t="s">
         <v>46</v>
       </c>
@@ -1678,7 +2110,7 @@
       <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="10" t="s">
         <v>48</v>
       </c>
@@ -1691,7 +2123,7 @@
       <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="10" t="s">
         <v>50</v>
       </c>
@@ -1704,7 +2136,7 @@
       <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="10" t="s">
         <v>52</v>
       </c>
@@ -1715,7 +2147,7 @@
     </row>
     <row r="24" spans="1:6" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
@@ -1726,7 +2158,7 @@
     </row>
     <row r="25" spans="1:6" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="10" t="s">
         <v>56</v>
       </c>
@@ -1739,7 +2171,7 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="10" t="s">
         <v>58</v>
       </c>
@@ -1752,7 +2184,7 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="10" t="s">
         <v>60</v>
       </c>
@@ -1765,7 +2197,7 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="10" t="s">
         <v>62</v>
       </c>
@@ -1777,7 +2209,7 @@
     </row>
     <row r="29" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="10" t="s">
         <v>64</v>
       </c>
@@ -1791,7 +2223,7 @@
       <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="10" t="s">
         <v>66</v>
       </c>
@@ -1807,7 +2239,7 @@
       <c r="A31" s="18">
         <v>28</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
@@ -1821,7 +2253,7 @@
       <c r="A32" s="18">
         <v>29</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="10" t="s">
         <v>71</v>
       </c>
@@ -1835,7 +2267,7 @@
       <c r="A33" s="18">
         <v>30</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="10" t="s">
         <v>73</v>
       </c>
@@ -1849,7 +2281,7 @@
       <c r="A34" s="25">
         <v>31</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="19" t="s">
         <v>75</v>
       </c>
@@ -1862,7 +2294,7 @@
     </row>
     <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
-      <c r="B35" s="28"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="19" t="s">
         <v>77</v>
       </c>
@@ -1876,7 +2308,7 @@
       <c r="A36" s="25">
         <v>35</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -1892,7 +2324,7 @@
       <c r="A37" s="25">
         <v>36</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="10" t="s">
         <v>82</v>
       </c>
@@ -1904,7 +2336,7 @@
     </row>
     <row r="38" spans="1:7" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
-      <c r="B38" s="28"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="10" t="s">
         <v>84</v>
       </c>
@@ -1917,7 +2349,7 @@
       <c r="A39" s="18">
         <v>39</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="10" t="s">
         <v>86</v>
       </c>
@@ -1946,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,437 +2405,437 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="30"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="32" t="s">
+      <c r="D5" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
-        <v>4</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="D6" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
-        <v>5</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>6</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>8</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="30"/>
+      <c r="D9" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="30"/>
+      <c r="D12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+        <v>100</v>
+      </c>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="30"/>
+        <v>135</v>
+      </c>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="27">
         <v>14</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:5" ht="73.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+        <v>101</v>
+      </c>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5" ht="59.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="30"/>
+        <v>136</v>
+      </c>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="30"/>
+        <v>137</v>
+      </c>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+        <v>102</v>
+      </c>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
         <v>20</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
-        <v>21</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
-        <v>22</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="35" t="s">
+      <c r="D27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D28" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
-        <v>23</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31" t="s">
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D29" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
-        <v>24</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30" t="s">
+      <c r="D30" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
-        <v>25</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31" t="s">
+      <c r="D31" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <v>31</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
-        <v>26</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31" t="s">
+      <c r="D32" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
+        <v>32</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
-        <v>27</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31" t="s">
+      <c r="D33" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
+        <v>33</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
-        <v>28</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31" t="s">
+      <c r="D34" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
-        <v>29</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
-        <v>30</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="30"/>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
-        <v>31</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
-        <v>32</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="30"/>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/question & anwers_lam.xlsx
+++ b/question & anwers_lam.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\report\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Report2\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785C2BFD-16EB-4D70-A3BB-A39F591FB149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lam" sheetId="1" r:id="rId1"/>
     <sheet name="Minh" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -726,54 +727,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Strong point:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-'+ analysis deeply, logical thinking. Standardize processes for making software.
-'+ Work team skill, share and learn knowledge from other members to take the best solution.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Weak point:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-'+ communication skills is not good. Because I focusing on develop software, I have not enough time to learn the factory other processes. After promoted, I will try to spend more time learning it from my manager and other colleague.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">+ </t>
     </r>
     <r>
@@ -1259,13 +1212,61 @@
         <family val="2"/>
       </rPr>
       <t>the programming languages is supported on mobile, easy to develop functions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Strong point:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+'+ analysis deeply, logical thinking, hard working. Standardize processes for making software.
+'+ Work team skill, share and learn knowledge from other members to take the best solution.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Weak point:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'+ communication skills is not good. Because I focusing on develop software, I have not enough time to learn the factory other processes. After promoted, I will try to spend more time learning it from my manager and other colleague.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1529,6 +1530,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1537,18 +1550,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1829,10 +1830,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
@@ -1867,7 +1868,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1886,7 +1887,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1898,7 +1899,7 @@
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1910,7 +1911,7 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1921,7 +1922,7 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
@@ -1932,7 +1933,7 @@
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1946,7 +1947,7 @@
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="34"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
@@ -1960,7 +1961,7 @@
         <f t="shared" ref="A10" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
@@ -1971,7 +1972,7 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="34"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
@@ -1987,7 +1988,7 @@
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
@@ -2001,7 +2002,7 @@
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="10" t="s">
         <v>29</v>
       </c>
@@ -2014,7 +2015,7 @@
       <c r="A14" s="26">
         <v>8</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -2029,7 +2030,7 @@
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="34"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
@@ -2042,7 +2043,7 @@
       <c r="A16" s="6">
         <v>9</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
@@ -2055,7 +2056,7 @@
       <c r="A17" s="6">
         <v>10</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
@@ -2068,7 +2069,7 @@
       <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
@@ -2084,7 +2085,7 @@
       <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="16" t="s">
         <v>44</v>
       </c>
@@ -2097,7 +2098,7 @@
       <c r="A20" s="26">
         <v>16</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="10" t="s">
         <v>46</v>
       </c>
@@ -2110,7 +2111,7 @@
       <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="10" t="s">
         <v>48</v>
       </c>
@@ -2123,7 +2124,7 @@
       <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="10" t="s">
         <v>50</v>
       </c>
@@ -2136,7 +2137,7 @@
       <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="10" t="s">
         <v>52</v>
       </c>
@@ -2147,7 +2148,7 @@
     </row>
     <row r="24" spans="1:6" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="34"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
@@ -2158,7 +2159,7 @@
     </row>
     <row r="25" spans="1:6" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="34"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="10" t="s">
         <v>56</v>
       </c>
@@ -2171,7 +2172,7 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="10" t="s">
         <v>58</v>
       </c>
@@ -2184,7 +2185,7 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="10" t="s">
         <v>60</v>
       </c>
@@ -2197,7 +2198,7 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="10" t="s">
         <v>62</v>
       </c>
@@ -2209,7 +2210,7 @@
     </row>
     <row r="29" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="34"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="10" t="s">
         <v>64</v>
       </c>
@@ -2223,7 +2224,7 @@
       <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="10" t="s">
         <v>66</v>
       </c>
@@ -2239,7 +2240,7 @@
       <c r="A31" s="18">
         <v>28</v>
       </c>
-      <c r="B31" s="34"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
@@ -2253,7 +2254,7 @@
       <c r="A32" s="18">
         <v>29</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="10" t="s">
         <v>71</v>
       </c>
@@ -2267,7 +2268,7 @@
       <c r="A33" s="18">
         <v>30</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="10" t="s">
         <v>73</v>
       </c>
@@ -2281,7 +2282,7 @@
       <c r="A34" s="25">
         <v>31</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="19" t="s">
         <v>75</v>
       </c>
@@ -2294,7 +2295,7 @@
     </row>
     <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
-      <c r="B35" s="34"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="19" t="s">
         <v>77</v>
       </c>
@@ -2308,7 +2309,7 @@
       <c r="A36" s="25">
         <v>35</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -2324,7 +2325,7 @@
       <c r="A37" s="25">
         <v>36</v>
       </c>
-      <c r="B37" s="34"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="10" t="s">
         <v>82</v>
       </c>
@@ -2336,7 +2337,7 @@
     </row>
     <row r="38" spans="1:7" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
-      <c r="B38" s="34"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="10" t="s">
         <v>84</v>
       </c>
@@ -2349,7 +2350,7 @@
       <c r="A39" s="18">
         <v>39</v>
       </c>
-      <c r="B39" s="35"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="10" t="s">
         <v>86</v>
       </c>
@@ -2375,11 +2376,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,7 +2409,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E2" s="27"/>
     </row>
@@ -2430,7 +2431,7 @@
         <v>90</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="27"/>
     </row>
@@ -2443,7 +2444,7 @@
         <v>91</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="27"/>
     </row>
@@ -2456,7 +2457,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="27"/>
     </row>
@@ -2469,7 +2470,7 @@
         <v>93</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="27"/>
     </row>
@@ -2482,7 +2483,7 @@
         <v>94</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="27"/>
     </row>
@@ -2491,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="27"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>95</v>
       </c>
       <c r="D8" s="30" t="s">
@@ -2504,11 +2505,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="27"/>
     </row>
@@ -2543,11 +2544,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="27"/>
     </row>
@@ -2573,7 +2574,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="27"/>
     </row>
@@ -2599,7 +2600,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="27"/>
     </row>
@@ -2612,7 +2613,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="27"/>
     </row>
@@ -2664,7 +2665,7 @@
         <v>77</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="27"/>
     </row>
@@ -2676,7 +2677,7 @@
       <c r="C22" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="36" t="s">
         <v>99</v>
       </c>
       <c r="E22" s="27"/>
@@ -2768,7 +2769,7 @@
         <v>116</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" s="27"/>
     </row>
@@ -2838,7 +2839,7 @@
       <c r="E34" s="27"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.22" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/question & anwers_lam.xlsx
+++ b/question & anwers_lam.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Report2\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\report\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785C2BFD-16EB-4D70-A3BB-A39F591FB149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lam" sheetId="1" r:id="rId1"/>
     <sheet name="Minh" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="146">
   <si>
     <t>No</t>
   </si>
@@ -1262,11 +1261,36 @@
 '+ communication skills is not good. Because I focusing on develop software, I have not enough time to learn the factory other processes. After promoted, I will try to spend more time learning it from my manager and other colleague.</t>
     </r>
   </si>
+  <si>
+    <t>Improve after trainning ?</t>
+  </si>
+  <si>
+    <t>I can program on mobile
+Effective team work management
+Communication skills and negotiation skills with departments</t>
+  </si>
+  <si>
+    <t>Vai trò ? Trong du án là gì</t>
+  </si>
+  <si>
+    <t>reduce function -&gt; worst why is good?</t>
+  </si>
+  <si>
+    <t>Because this project is big. I and my team discussed together select a new OS, a new language, and a new device to make new software.
+next step : we analysis and optimization FOSS system.
+after that : Discuss and negotiate with pic department on new system.
+the last : development and upgrade on new device.</t>
+  </si>
+  <si>
+    <t>+ Similar functions are combined into one screen. more convenient in operation.
+'+ Think about it, the same kitting operation for many different categories, each categogy on one screen, will take a lot of operations. Meanwhile we can combine them into one screen by tool filter by cate.
+'+ later ,when modify the program, take only little time to update system.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1440,7 +1464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1550,6 +1574,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1830,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2376,11 +2409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,6 +2871,30 @@
       </c>
       <c r="E34" s="27"/>
     </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C35" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C36" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C37" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.22" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
